--- a/data/Depot Listing D numbers with Capacities.xlsx
+++ b/data/Depot Listing D numbers with Capacities.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PowerBI God Forsaken Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\DXFreightRouting\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02A9A566-FF71-49D2-AB22-36DF8184617E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA629E02-9C7B-42BA-B5F5-99AF006ED14E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="9960" xr2:uid="{B3E16B6D-44EE-4DA2-BD59-4D78047EED89}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{B3E16B6D-44EE-4DA2-BD59-4D78047EED89}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>DepotID</t>
   </si>
@@ -93,18 +93,9 @@
     <t xml:space="preserve">ABERDEEN </t>
   </si>
   <si>
-    <t>ACTON (WLO)</t>
-  </si>
-  <si>
-    <t>AYLESFORD (Maidstone)</t>
-  </si>
-  <si>
     <t xml:space="preserve">BASILDON </t>
   </si>
   <si>
-    <t>BELFAST AIRPORT x 2</t>
-  </si>
-  <si>
     <t>BODMIN</t>
   </si>
   <si>
@@ -114,9 +105,6 @@
     <t>BRIDGEND</t>
   </si>
   <si>
-    <t>BRISTOL - Jupiter Road</t>
-  </si>
-  <si>
     <t xml:space="preserve">CARLISLE </t>
   </si>
   <si>
@@ -126,12 +114,6 @@
     <t>DEESIDE</t>
   </si>
   <si>
-    <t>DUBLIN DARGAN HOUSE</t>
-  </si>
-  <si>
-    <t>EDINBURGH - Oakbank</t>
-  </si>
-  <si>
     <t>EDINBURGH RUTLAND SQ</t>
   </si>
   <si>
@@ -165,9 +147,6 @@
     <t>INVERNESS</t>
   </si>
   <si>
-    <t xml:space="preserve">IPSWICH - FOXTAIL ROAD </t>
-  </si>
-  <si>
     <t>LONDON NORTH</t>
   </si>
   <si>
@@ -234,36 +213,6 @@
     <t xml:space="preserve">SWINDON </t>
   </si>
   <si>
-    <t>D0001</t>
-  </si>
-  <si>
-    <t>D0002</t>
-  </si>
-  <si>
-    <t>D0003</t>
-  </si>
-  <si>
-    <t>D0004</t>
-  </si>
-  <si>
-    <t>D0005</t>
-  </si>
-  <si>
-    <t>D0006</t>
-  </si>
-  <si>
-    <t>D0007</t>
-  </si>
-  <si>
-    <t>D0008</t>
-  </si>
-  <si>
-    <t>D0009</t>
-  </si>
-  <si>
-    <t>D0010</t>
-  </si>
-  <si>
     <t>D0011</t>
   </si>
   <si>
@@ -279,24 +228,9 @@
     <t>D0015</t>
   </si>
   <si>
-    <t>D0016</t>
-  </si>
-  <si>
-    <t>D0017</t>
-  </si>
-  <si>
-    <t>D0018</t>
-  </si>
-  <si>
-    <t>D0019</t>
-  </si>
-  <si>
     <t>D0020</t>
   </si>
   <si>
-    <t>D0021</t>
-  </si>
-  <si>
     <t>D0022</t>
   </si>
   <si>
@@ -309,18 +243,6 @@
     <t>D0025</t>
   </si>
   <si>
-    <t>D0026</t>
-  </si>
-  <si>
-    <t>D0027</t>
-  </si>
-  <si>
-    <t>D0028</t>
-  </si>
-  <si>
-    <t>D0029</t>
-  </si>
-  <si>
     <t>D0030</t>
   </si>
   <si>
@@ -345,33 +267,12 @@
     <t>D0037</t>
   </si>
   <si>
-    <t>D0038</t>
-  </si>
-  <si>
-    <t>D0039</t>
-  </si>
-  <si>
-    <t>D0040</t>
-  </si>
-  <si>
-    <t>D0041</t>
-  </si>
-  <si>
     <t>D0042</t>
   </si>
   <si>
-    <t>D0043</t>
-  </si>
-  <si>
     <t>D0044</t>
   </si>
   <si>
-    <t>D0045</t>
-  </si>
-  <si>
-    <t>D0046</t>
-  </si>
-  <si>
     <t>D0047</t>
   </si>
   <si>
@@ -390,9 +291,6 @@
     <t>D0052</t>
   </si>
   <si>
-    <t>**HUB</t>
-  </si>
-  <si>
     <t>NORTHAMPTON</t>
   </si>
   <si>
@@ -403,6 +301,105 @@
   </si>
   <si>
     <t>NUNEATON 2</t>
+  </si>
+  <si>
+    <t>D0056</t>
+  </si>
+  <si>
+    <t>D0070</t>
+  </si>
+  <si>
+    <t>D0092</t>
+  </si>
+  <si>
+    <t>D0053</t>
+  </si>
+  <si>
+    <t>D0076</t>
+  </si>
+  <si>
+    <t>D0080</t>
+  </si>
+  <si>
+    <t>D0054</t>
+  </si>
+  <si>
+    <t>D0090</t>
+  </si>
+  <si>
+    <t>WLO</t>
+  </si>
+  <si>
+    <t>D0055</t>
+  </si>
+  <si>
+    <t>BELFAST AIRPORT</t>
+  </si>
+  <si>
+    <t>D0060</t>
+  </si>
+  <si>
+    <t>D0071</t>
+  </si>
+  <si>
+    <t>BRISTOL</t>
+  </si>
+  <si>
+    <t>D0077</t>
+  </si>
+  <si>
+    <t>D0059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DUBLIN </t>
+  </si>
+  <si>
+    <t>EDINBURGH</t>
+  </si>
+  <si>
+    <t>D0073</t>
+  </si>
+  <si>
+    <t>D0058</t>
+  </si>
+  <si>
+    <t>IPSWICH</t>
+  </si>
+  <si>
+    <t>MAIDSTONE</t>
+  </si>
+  <si>
+    <t>D0999</t>
+  </si>
+  <si>
+    <t>D0998</t>
+  </si>
+  <si>
+    <t>D0072</t>
+  </si>
+  <si>
+    <t>D0069</t>
+  </si>
+  <si>
+    <t>D0075</t>
+  </si>
+  <si>
+    <t>D0201</t>
+  </si>
+  <si>
+    <t>D0202</t>
+  </si>
+  <si>
+    <t>D0203</t>
+  </si>
+  <si>
+    <t>D0204</t>
+  </si>
+  <si>
+    <t>D0205</t>
+  </si>
+  <si>
+    <t>D0206</t>
   </si>
 </sst>
 </file>
@@ -886,15 +883,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF0E281B-6064-4A30-979F-573FF8A4F366}">
-  <dimension ref="A1:F53"/>
+  <dimension ref="A1:E53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D54" sqref="D54"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.109375" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29.33203125" customWidth="1"/>
     <col min="3" max="3" width="10.6640625" customWidth="1"/>
     <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
@@ -925,7 +922,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>5</v>
@@ -942,10 +939,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>6</v>
+        <v>84</v>
       </c>
       <c r="C3" s="3">
         <v>51.522517000000001</v>
@@ -959,10 +956,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>7</v>
+        <v>97</v>
       </c>
       <c r="C4" s="4">
         <v>51.304499999999997</v>
@@ -971,15 +968,15 @@
         <v>0.49859999999999999</v>
       </c>
       <c r="E4">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C5" s="5">
         <v>51.589700000000001</v>
@@ -993,10 +990,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>57</v>
+        <v>81</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>9</v>
+        <v>86</v>
       </c>
       <c r="C6" s="6">
         <v>54.658200000000001</v>
@@ -1010,10 +1007,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C7" s="8">
         <v>50.478299999999997</v>
@@ -1027,10 +1024,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>59</v>
+        <v>87</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C8" s="9">
         <v>51.414200000000001</v>
@@ -1039,15 +1036,15 @@
         <v>-0.73699999999999999</v>
       </c>
       <c r="E8">
-        <v>3000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C9" s="3">
         <v>51.502518000000002</v>
@@ -1056,15 +1053,15 @@
         <v>-3.5492309999999998</v>
       </c>
       <c r="E9">
-        <v>3000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>13</v>
+        <v>89</v>
       </c>
       <c r="C10" s="5">
         <v>51.527500000000003</v>
@@ -1073,15 +1070,15 @@
         <v>-2.5911</v>
       </c>
       <c r="E10">
-        <v>10000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C11" s="4">
         <v>54.921999999999997</v>
@@ -1095,10 +1092,10 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C12" s="10">
         <v>51.460599999999999</v>
@@ -1107,15 +1104,15 @@
         <v>0.25640000000000002</v>
       </c>
       <c r="E12">
-        <v>3000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C13" s="6">
         <v>53.199800000000003</v>
@@ -1124,15 +1121,15 @@
         <v>-2.9969999999999999</v>
       </c>
       <c r="E13">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="C14" s="6">
         <v>53.34</v>
@@ -1146,10 +1143,10 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>18</v>
+        <v>93</v>
       </c>
       <c r="C15" s="4">
         <v>55.875300000000003</v>
@@ -1158,15 +1155,15 @@
         <v>-3.4897</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>67</v>
+        <v>103</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C16" s="6">
         <v>55.948599999999999</v>
@@ -1180,10 +1177,10 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>68</v>
+        <v>94</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C17" s="9">
         <v>50.720199999999998</v>
@@ -1192,15 +1189,15 @@
         <v>-3.4647000000000001</v>
       </c>
       <c r="E17">
-        <v>2000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>69</v>
+        <v>104</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C18" s="3">
         <v>53.37</v>
@@ -1214,10 +1211,10 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C19" s="4">
         <v>51.128999999999998</v>
@@ -1226,15 +1223,15 @@
         <v>-0.17169999999999999</v>
       </c>
       <c r="E19">
-        <v>2000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>71</v>
+        <v>105</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C20" s="9">
         <v>55.861600000000003</v>
@@ -1248,10 +1245,10 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C21" s="6">
         <v>55.889200000000002</v>
@@ -1260,15 +1257,15 @@
         <v>-4.0683999999999996</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>250</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C22" s="10">
         <v>53.581099999999999</v>
@@ -1282,10 +1279,10 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C23" s="6">
         <v>51.787999999999997</v>
@@ -1294,15 +1291,15 @@
         <v>0.1091</v>
       </c>
       <c r="E23">
-        <v>2000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C24" s="12">
         <v>53.477699999999999</v>
@@ -1311,15 +1308,15 @@
         <v>-2.6644000000000001</v>
       </c>
       <c r="E24">
-        <v>5000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C25" s="13">
         <v>52.346400000000003</v>
@@ -1328,15 +1325,15 @@
         <v>0.19570000000000001</v>
       </c>
       <c r="E25">
-        <v>1000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C26" s="4">
         <v>57.486899999999999</v>
@@ -1350,10 +1347,10 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>30</v>
+        <v>96</v>
       </c>
       <c r="C27" s="4">
         <v>52.028799999999997</v>
@@ -1362,15 +1359,15 @@
         <v>1.2054</v>
       </c>
       <c r="E27">
-        <v>2000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>79</v>
+        <v>106</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C28" s="3">
         <v>51.516199999999998</v>
@@ -1384,10 +1381,10 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C29" s="5">
         <v>51.5687</v>
@@ -1396,15 +1393,15 @@
         <v>-0.23680000000000001</v>
       </c>
       <c r="E29">
-        <v>3000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C30" s="12">
         <v>51.486199999999997</v>
@@ -1421,7 +1418,7 @@
         <v>82</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C31" s="9">
         <v>51.8979</v>
@@ -1430,15 +1427,15 @@
         <v>-0.50449999999999995</v>
       </c>
       <c r="E31">
-        <v>3000</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>83</v>
+        <v>56</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C32" s="4">
         <v>53.461300000000001</v>
@@ -1447,15 +1444,15 @@
         <v>-2.3184999999999998</v>
       </c>
       <c r="E32">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>84</v>
+        <v>55</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C33" s="13">
         <v>54.586199999999998</v>
@@ -1464,15 +1461,15 @@
         <v>-1.2476</v>
       </c>
       <c r="E33">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>85</v>
+        <v>51</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C34" s="4">
         <v>54.939500000000002</v>
@@ -1484,12 +1481,12 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>86</v>
+        <v>52</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C35" s="9">
         <v>53.7059</v>
@@ -1498,15 +1495,15 @@
         <v>-1.3885000000000001</v>
       </c>
       <c r="E35">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>106</v>
+        <v>72</v>
       </c>
       <c r="C36" s="6">
         <v>52.276299999999999</v>
@@ -1515,15 +1512,15 @@
         <v>-0.87339999999999995</v>
       </c>
       <c r="E36">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>107</v>
+        <v>73</v>
       </c>
       <c r="C37" s="4">
         <v>52.650100000000002</v>
@@ -1532,15 +1529,15 @@
         <v>1.2616000000000001</v>
       </c>
       <c r="E37">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>89</v>
+        <v>64</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C38" s="4">
         <v>52.9208</v>
@@ -1552,12 +1549,12 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>108</v>
+        <v>74</v>
       </c>
       <c r="C39" s="9">
         <v>52.499000000000002</v>
@@ -1566,18 +1563,15 @@
         <v>-1.4791000000000001</v>
       </c>
       <c r="E39">
-        <v>7000</v>
-      </c>
-      <c r="F39" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>109</v>
+        <v>75</v>
       </c>
       <c r="C40" s="4">
         <v>52.505299999999998</v>
@@ -1586,18 +1580,15 @@
         <v>-1.4754</v>
       </c>
       <c r="E40">
-        <v>3000</v>
-      </c>
-      <c r="F40" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>92</v>
+        <v>48</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C41" s="14">
         <v>56.419499999999999</v>
@@ -1609,12 +1600,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C42" s="10">
         <v>50.389800000000001</v>
@@ -1626,12 +1617,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>94</v>
+        <v>57</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C43" s="6">
         <v>53.7913</v>
@@ -1640,15 +1631,15 @@
         <v>-2.6514000000000002</v>
       </c>
       <c r="E43">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>95</v>
+        <v>54</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C44" s="10">
         <v>53.427700000000002</v>
@@ -1660,12 +1651,12 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>96</v>
+        <v>61</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C45" s="4">
         <v>52.740400000000001</v>
@@ -1674,15 +1665,15 @@
         <v>-2.7294999999999998</v>
       </c>
       <c r="E45">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C46" s="6">
         <v>54.175899999999999</v>
@@ -1694,12 +1685,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>98</v>
+        <v>62</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C47" s="4">
         <v>52.816400000000002</v>
@@ -1708,15 +1699,15 @@
         <v>-2.0783</v>
       </c>
       <c r="E47">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C48" s="4">
         <v>51.552900000000001</v>
@@ -1725,15 +1716,15 @@
         <v>-1.8085</v>
       </c>
       <c r="E48">
-        <v>1000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C49" s="10">
         <v>50.933300000000003</v>
@@ -1747,10 +1738,10 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C50" s="10">
         <v>50.933300000000003</v>
@@ -1759,7 +1750,7 @@
         <v>-1.5064</v>
       </c>
       <c r="E50">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
@@ -1767,7 +1758,7 @@
         <v>102</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C51" s="3">
         <v>50.982909999999997</v>
@@ -1781,10 +1772,10 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C52" s="13">
         <v>50.867800000000003</v>
@@ -1793,15 +1784,15 @@
         <v>-1.8516999999999999</v>
       </c>
       <c r="E52">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>104</v>
+        <v>63</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C53" s="6">
         <v>52.533000000000001</v>
